--- a/data/trans_camb/P25A_5_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,67 +548,103 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,64</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,73</t>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,0</t>
+          <t>-2,88; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,6</t>
+          <t>-4,87; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 56,4</t>
+          <t>-4,87; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -0,04</t>
+          <t>1,9; 11,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,46</t>
+          <t>-3,73; 8,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 47,08</t>
+          <t>-5,18; 2,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -0,47</t>
+          <t>-6,3; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,32</t>
+          <t>-5,99; 1,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 41,18</t>
+          <t>-1,39; 7,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 7,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 1,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; -0,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 0,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 8,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,29</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-15,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2075,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-70,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,44%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>349,96%</t>
+          <t>-37,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-77,12%</t>
+          <t>-65,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-51,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>812,65%</t>
+          <t>137,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>166,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-30,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-74,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-63,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>417,34%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>77,83%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,11; 110,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2872,0</t>
+          <t>-86,96; 163,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -10,83</t>
+          <t>-94,59; 79,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,9; 99,97</t>
+          <t>-100,0; 146,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>118,34; 2446,49</t>
+          <t>-68,67; 1035,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-70,14; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-79,4; 124,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 12,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-93,25; 66,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>45,36; 2422,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-43,16; 508,91</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,55</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,05</t>
+          <t>-3,44; 3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,4</t>
+          <t>-4,15; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 69,73</t>
+          <t>-3,12; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,06</t>
+          <t>-3,47; 6,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,39</t>
+          <t>-0,53; 7,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 58,29</t>
+          <t>-2,28; 3,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,92</t>
+          <t>-2,62; 2,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,45</t>
+          <t>0,74; 9,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 48,59</t>
+          <t>-7,09; 2,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 4,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 2,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 2,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 5,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 3,15</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 5,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>699,63%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>286,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1574,32%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>228,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1217,75%</t>
+          <t>-32,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>111,58%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-8,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>70,01%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,23; 389,83</t>
+          <t>-85,94; 453,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-82,74; 347,72</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-88,06; 542,31</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-79,54; 499,39</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-84,55; 458,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-73,34; 499,01</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>381,14; 7515,04</t>
+          <t>-67,57; 434,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 160,84</t>
+          <t>-82,58; 466,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 202,15</t>
+          <t>-5,37; 1181,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>276,62; 3111,44</t>
+          <t>-77,14; 69,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-65,95; 252,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-63,76; 197,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-60,6; 198,56</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 399,63</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-57,13; 111,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 327,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,51</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,07</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>0,35</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,59</t>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,41</t>
+          <t>-0,63; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,59</t>
+          <t>-1,56; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 60,11</t>
+          <t>-0,92; 3,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,6</t>
+          <t>-1,7; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,47</t>
+          <t>-3,53; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 49,33</t>
+          <t>-1,58; 2,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,54</t>
+          <t>-1,43; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,39</t>
+          <t>0,96; 7,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 47,16</t>
+          <t>-5,08; 3,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 2,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 1,81</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 4,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 2,27</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 3,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>174,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>215,74%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4588,38%</t>
+          <t>103,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>-20,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1849,19%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>269,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2789,93%</t>
+          <t>-12,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>127,43%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77,65%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>212,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-61,95; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-62,64; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>327,84; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,21; 417,48</t>
+          <t>-79,12; 778,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,73; 506,95</t>
+          <t>-85,36; 245,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>391,24; 7587,11</t>
+          <t>-73,79; 521,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 293,11</t>
+          <t>-69,05; 451,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 530,41</t>
+          <t>12,96; 1415,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>967,25; 7797,17</t>
+          <t>-67,96; 102,39</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-35,82; 708,85</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 507,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-57,31; 428,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 844,58</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-54,86; 98,55</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-40,35; 236,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,68</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,19</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,12</t>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,23</t>
+          <t>0,32; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,58</t>
+          <t>0,55; 3,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 76,61</t>
+          <t>0,28; 2,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,06</t>
+          <t>-0,94; 3,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,68</t>
+          <t>-2,37; 3,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 56,8</t>
+          <t>-2,21; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,02</t>
+          <t>-2,58; 2,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,31</t>
+          <t>0,41; 6,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,44; 56,64</t>
+          <t>-4,93; 2,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 4,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 2,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,92</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 4,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 2,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 2,81</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1869,62 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1680,49%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3517,76%</t>
+          <t>-20,48%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>69,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>61,47%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>200,02%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>28,29%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1952,62 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 239,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 280,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>417,39; 5470,76</t>
+          <t>-71,08; 263,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,82; 358,12</t>
+          <t>-71,68; 285,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 525,36</t>
+          <t>2,25; 636,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1279,97; 10423,59</t>
+          <t>-64,5; 69,57</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-53,04; 300,17</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,15; 387,28</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-43,51; 391,35</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 728,75</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-52,55; 88,02</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-48,54; 183,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52,48</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>48,09</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>49,82</t>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,7</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,94; 8,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,91; 88,28</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,1</t>
+          <t>0,17; 4,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,69</t>
+          <t>-4,31; 2,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,07; 69,54</t>
+          <t>-0,63; 4,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,42</t>
+          <t>-1,55; 3,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,84</t>
+          <t>-0,71; 5,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,59; 65,55</t>
+          <t>-1,0; 7,21</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 6,36</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 2,78</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 4,54</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 2,94</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 5,03</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 3,49</t>
         </is>
       </c>
     </row>
@@ -1617,32 +2205,62 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>455,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>165,94%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3716,04%</t>
+          <t>142,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>279,98%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>211,19%</t>
+          <t>137,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7606,64%</t>
+          <t>82,09%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>184,8%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>241,17%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>168,15%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>121,32%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +2288,62 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 938,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 1041,42</t>
+          <t>-89,31; 184,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>921,25; 14649,15</t>
+          <t>-42,83; 1050,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,22; —</t>
+          <t>-77,12; 849,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,23; —</t>
+          <t>-61,15; 989,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2186,8; 28381,78</t>
+          <t>-29,71; 392,7</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-41,27; 233,28</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; 1073,78</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 1615,23</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-42,21; 1039,3</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 519,29</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-43,27; 138,24</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>45,82</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,48</t>
+          <t>-6,4</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,26</t>
+          <t>-3,81; 4,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,75</t>
+          <t>-5,77; 1,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 97,72</t>
+          <t>-5,27; 2,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,79</t>
+          <t>-3,73; 1,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,43</t>
+          <t>-5,24; 1,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 49,91</t>
+          <t>-7,33; 1,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,21</t>
+          <t>-2,47; 10,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,96</t>
+          <t>0,05; 17,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,0; 52,18</t>
+          <t>-17,08; 0,26</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 8,48</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 2,0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 5,96</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 9,85</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 0,06</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 4,39</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-46,45%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>-49,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1873,76%</t>
+          <t>-43,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>-49,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-41,95%</t>
+          <t>-61,66%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>384,64%</t>
+          <t>-49,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-14,19%</t>
+          <t>144,78%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>762,51%</t>
+          <t>-57,39%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>305,77%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-23,72%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>88,02%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-55,73%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>107,93%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-82,98; 805,46</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-75,5; 1168,4</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-51,64; 428,17</t>
-        </is>
-      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-89,74; 102,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2285,79</t>
+          <t>-87,7; 123,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 238,93</t>
+          <t>-48,72; 516,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 124,95</t>
+          <t>-16,99; 929,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63,62; 2355,34</t>
+          <t>-90,33; 9,85</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-61,47; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-71,07; 128,13</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-49,45; 272,26</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-21,67; 517,72</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-86,62; 10,07</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-59,06; 888,42</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>33,99</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>29,89</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>31,75</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,2</t>
+          <t>-0,33; 1,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,81</t>
+          <t>-0,65; 1,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>22,09; 46,35</t>
+          <t>-0,89; 1,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,77</t>
+          <t>0,2; 2,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,22</t>
+          <t>-1,06; 2,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,19; 39,94</t>
+          <t>-1,63; 1,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,15</t>
+          <t>-0,99; 2,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,15</t>
+          <t>1,5; 5,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,65; 40,05</t>
+          <t>-3,75; 0,82</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,73</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,07</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,47</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,23</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,3</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,37</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2977,3%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>107,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1203,46%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>131,53%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1737,79%</t>
+          <t>-19,65%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>76,7%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>96,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>50,06%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 169,35</t>
+          <t>-22,34; 255,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 278,61</t>
+          <t>-40,65; 212,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1435,26; 6289,57</t>
+          <t>-54,85; 174,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 93,69</t>
+          <t>8,23; 316,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 67,43</t>
+          <t>-36,73; 127,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>678,86; 2058,79</t>
+          <t>-46,33; 52,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 81,28</t>
+          <t>-31,83; 100,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 81,16</t>
+          <t>36,11; 268,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1094,51; 2599,05</t>
+          <t>-46,67; 19,31</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 172,82</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-24,46; 73,95</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 99,46</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>32,49; 216,79</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 42,92</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 114,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
